--- a/VE_data/performance_data/surfing_landing.xlsx
+++ b/VE_data/performance_data/surfing_landing.xlsx
@@ -892,7 +892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -981,13 +983,13 @@
         <v>35.640059999999998</v>
       </c>
       <c r="L2">
-        <v>2.8462170000000002</v>
+        <v>38.276940000000003</v>
       </c>
       <c r="M2">
         <v>14.163600000000001</v>
       </c>
       <c r="N2">
-        <v>38.276940000000003</v>
+        <v>2.8462170000000002</v>
       </c>
       <c r="O2">
         <v>24.148810000000001</v>
@@ -1031,13 +1033,13 @@
         <v>8.5027080000000002</v>
       </c>
       <c r="L3">
-        <v>3.560743</v>
+        <v>4.4064360000000002</v>
       </c>
       <c r="M3">
         <v>1.6480170000000001</v>
       </c>
       <c r="N3">
-        <v>4.4064360000000002</v>
+        <v>3.560743</v>
       </c>
       <c r="O3">
         <v>8.0920260000000006</v>
@@ -1081,13 +1083,13 @@
         <v>4.4659019999999998</v>
       </c>
       <c r="L4">
-        <v>2.4628679999999998</v>
+        <v>4.0857659999999996</v>
       </c>
       <c r="M4">
         <v>5.4603919999999997</v>
       </c>
       <c r="N4">
-        <v>4.0857659999999996</v>
+        <v>2.4628679999999998</v>
       </c>
       <c r="O4">
         <v>3.2007189999999999</v>
@@ -1131,19 +1133,19 @@
         <v>2.297231</v>
       </c>
       <c r="L5">
-        <v>2.9131330000000002</v>
+        <v>6.6532249999999999</v>
       </c>
       <c r="M5">
         <v>1.7423960000000001</v>
       </c>
       <c r="N5">
-        <v>6.6532249999999999</v>
+        <v>2.9131330000000002</v>
       </c>
       <c r="O5">
         <v>1.834498</v>
       </c>
       <c r="P5">
-        <v>3.7695850000000002</v>
+        <v>3.769584</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1181,13 +1183,13 @@
         <v>18.906669999999998</v>
       </c>
       <c r="L6">
-        <v>1.57056</v>
+        <v>7.9029410000000002</v>
       </c>
       <c r="M6">
         <v>9.5699369999999995</v>
       </c>
       <c r="N6">
-        <v>7.9029410000000002</v>
+        <v>1.57056</v>
       </c>
       <c r="O6">
         <v>11.52577</v>
@@ -1231,13 +1233,13 @@
         <v>7.1631499999999999</v>
       </c>
       <c r="L7">
-        <v>0.84382000000000001</v>
+        <v>1.794621</v>
       </c>
       <c r="M7">
         <v>1.4291910000000001</v>
       </c>
       <c r="N7">
-        <v>1.794621</v>
+        <v>0.84382000000000001</v>
       </c>
       <c r="O7">
         <v>10.09521</v>
@@ -1281,13 +1283,13 @@
         <v>2.4902470000000001</v>
       </c>
       <c r="L8">
+        <v>9.3929860000000005</v>
+      </c>
+      <c r="M8">
         <v>1.1463289999999999</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4.0619459999999998</v>
-      </c>
-      <c r="N8">
-        <v>9.3929860000000005</v>
       </c>
       <c r="O8">
         <v>7.6455640000000002</v>
@@ -1331,13 +1333,13 @@
         <v>0.66891820000000002</v>
       </c>
       <c r="L9">
+        <v>1.2082269999999999</v>
+      </c>
+      <c r="M9">
         <v>1.143046</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.2735283</v>
-      </c>
-      <c r="N9">
-        <v>1.2082269999999999</v>
       </c>
       <c r="O9">
         <v>3.450256</v>
@@ -1381,13 +1383,13 @@
         <v>7.8659559999999997</v>
       </c>
       <c r="L10">
-        <v>2.3670059999999999</v>
+        <v>6.5210189999999999</v>
       </c>
       <c r="M10">
         <v>1.887969</v>
       </c>
       <c r="N10">
-        <v>6.5210189999999999</v>
+        <v>2.3670059999999999</v>
       </c>
       <c r="O10">
         <v>5.3814599999999997</v>
@@ -1431,13 +1433,13 @@
         <v>1.915187</v>
       </c>
       <c r="L11">
-        <v>0.65561899999999995</v>
+        <v>1.4919439999999999</v>
       </c>
       <c r="M11">
         <v>6.2012299999999998</v>
       </c>
       <c r="N11">
-        <v>1.4919439999999999</v>
+        <v>0.65561899999999995</v>
       </c>
       <c r="O11">
         <v>3.764024</v>
@@ -1481,19 +1483,19 @@
         <v>3.080419</v>
       </c>
       <c r="L12">
-        <v>2.412058</v>
+        <v>1.004893</v>
       </c>
       <c r="M12">
         <v>9.3535450000000004</v>
       </c>
       <c r="N12">
-        <v>1.004893</v>
+        <v>2.412058</v>
       </c>
       <c r="O12">
         <v>3.0386350000000002</v>
       </c>
       <c r="P12">
-        <v>4.2568330000000003</v>
+        <v>4.2568320000000002</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1531,13 +1533,13 @@
         <v>5.0858590000000001</v>
       </c>
       <c r="L13">
-        <v>1.152984</v>
+        <v>2.3870749999999998</v>
       </c>
       <c r="M13">
         <v>3.9321220000000001</v>
       </c>
       <c r="N13">
-        <v>2.3870749999999998</v>
+        <v>1.152984</v>
       </c>
       <c r="O13">
         <v>2.600196</v>
@@ -1581,13 +1583,13 @@
         <v>6.6660589999999997</v>
       </c>
       <c r="L14">
-        <v>10.883889999999999</v>
+        <v>14.045579999999999</v>
       </c>
       <c r="M14">
         <v>2.6234649999999999</v>
       </c>
       <c r="N14">
-        <v>14.045579999999999</v>
+        <v>10.883889999999999</v>
       </c>
       <c r="O14">
         <v>5.2367359999999996</v>
@@ -1631,13 +1633,13 @@
         <v>0.8387462</v>
       </c>
       <c r="L15">
+        <v>7.385065</v>
+      </c>
+      <c r="M15">
         <v>3.3443809999999998</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.51483610000000002</v>
-      </c>
-      <c r="N15">
-        <v>7.385065</v>
       </c>
       <c r="O15">
         <v>8.9022780000000008</v>
@@ -1681,13 +1683,13 @@
         <v>2.0170669999999999</v>
       </c>
       <c r="L16">
+        <v>1.9749490000000001</v>
+      </c>
+      <c r="M16">
         <v>2.6643750000000002</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>7.5160489999999998</v>
-      </c>
-      <c r="N16">
-        <v>1.9749490000000001</v>
       </c>
       <c r="O16">
         <v>5.3278660000000002</v>
@@ -1731,13 +1733,13 @@
         <v>2.7568869999999999</v>
       </c>
       <c r="L17">
+        <v>2.6891600000000002</v>
+      </c>
+      <c r="M17">
         <v>2.425081</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.776675</v>
-      </c>
-      <c r="N17">
-        <v>2.6891600000000002</v>
       </c>
       <c r="O17">
         <v>4.7259770000000003</v>
@@ -1781,13 +1783,13 @@
         <v>7.5087039999999998</v>
       </c>
       <c r="L18">
-        <v>10.81536</v>
+        <v>3.549166</v>
       </c>
       <c r="M18">
         <v>14.66452</v>
       </c>
       <c r="N18">
-        <v>3.549166</v>
+        <v>10.81536</v>
       </c>
       <c r="O18">
         <v>9.4583670000000009</v>
@@ -1831,13 +1833,13 @@
         <v>3.3318249999999998</v>
       </c>
       <c r="L19">
-        <v>1.427424</v>
+        <v>1.4282109999999999</v>
       </c>
       <c r="M19">
         <v>3.538389</v>
       </c>
       <c r="N19">
-        <v>1.4282109999999999</v>
+        <v>1.427424</v>
       </c>
       <c r="O19">
         <v>5.1979050000000004</v>
@@ -1881,13 +1883,13 @@
         <v>0.43689139999999999</v>
       </c>
       <c r="L20">
-        <v>1.8432740000000001</v>
+        <v>1.2122470000000001</v>
       </c>
       <c r="M20">
         <v>1.6074349999999999</v>
       </c>
       <c r="N20">
-        <v>1.2122470000000001</v>
+        <v>1.8432740000000001</v>
       </c>
       <c r="O20">
         <v>1.0658080000000001</v>
@@ -1931,13 +1933,13 @@
         <v>6.2788019999999998</v>
       </c>
       <c r="L21">
-        <v>2.9730310000000002</v>
+        <v>0.4341486</v>
       </c>
       <c r="M21">
         <v>2.174506</v>
       </c>
       <c r="N21">
-        <v>0.4341486</v>
+        <v>2.9730310000000002</v>
       </c>
       <c r="O21">
         <v>5.4344739999999998</v>
@@ -1981,13 +1983,13 @@
         <v>0.66507930000000004</v>
       </c>
       <c r="L22">
-        <v>3.2418469999999999</v>
+        <v>12.41051</v>
       </c>
       <c r="M22">
         <v>10.17496</v>
       </c>
       <c r="N22">
-        <v>12.41051</v>
+        <v>3.2418469999999999</v>
       </c>
       <c r="O22">
         <v>1.0570649999999999</v>
@@ -2031,13 +2033,13 @@
         <v>0.3618287</v>
       </c>
       <c r="L23">
+        <v>0.85664439999999997</v>
+      </c>
+      <c r="M23">
         <v>1.0493669999999999</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1.407942</v>
-      </c>
-      <c r="N23">
-        <v>0.85664439999999997</v>
       </c>
       <c r="O23">
         <v>1.333334</v>
@@ -2081,13 +2083,13 @@
         <v>13.595000000000001</v>
       </c>
       <c r="L24">
+        <v>12.13937</v>
+      </c>
+      <c r="M24">
         <v>11.53876</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>14.456160000000001</v>
-      </c>
-      <c r="N24">
-        <v>12.13937</v>
       </c>
       <c r="O24">
         <v>14.278280000000001</v>
@@ -2131,13 +2133,13 @@
         <v>2.476102</v>
       </c>
       <c r="L25">
-        <v>9.2004000000000001</v>
+        <v>5.8198059999999998</v>
       </c>
       <c r="M25">
         <v>4.6026600000000002</v>
       </c>
       <c r="N25">
-        <v>5.8198059999999998</v>
+        <v>9.2004000000000001</v>
       </c>
       <c r="O25">
         <v>5.3159960000000002</v>
@@ -2181,13 +2183,13 @@
         <v>34.815579999999997</v>
       </c>
       <c r="L26">
-        <v>7.7089439999999998</v>
+        <v>1.039563</v>
       </c>
       <c r="M26">
         <v>3.5866229999999999</v>
       </c>
       <c r="N26">
-        <v>1.039563</v>
+        <v>7.7089439999999998</v>
       </c>
       <c r="O26">
         <v>24.621099999999998</v>
@@ -2231,13 +2233,13 @@
         <v>12.365830000000001</v>
       </c>
       <c r="L27">
-        <v>3.170553</v>
+        <v>10.53106</v>
       </c>
       <c r="M27">
         <v>12.23676</v>
       </c>
       <c r="N27">
-        <v>10.53106</v>
+        <v>3.170553</v>
       </c>
       <c r="O27">
         <v>13.05589</v>
@@ -2281,13 +2283,13 @@
         <v>1.9510749999999999</v>
       </c>
       <c r="L28">
-        <v>7.6003040000000004</v>
+        <v>6.4479430000000004</v>
       </c>
       <c r="M28">
         <v>2.5144519999999999</v>
       </c>
       <c r="N28">
-        <v>6.4479430000000004</v>
+        <v>7.6003040000000004</v>
       </c>
       <c r="O28">
         <v>1.990162</v>
@@ -2331,13 +2333,13 @@
         <v>9.4814620000000005</v>
       </c>
       <c r="L29">
-        <v>0.93344090000000002</v>
+        <v>10.28013</v>
       </c>
       <c r="M29">
         <v>11.728680000000001</v>
       </c>
       <c r="N29">
-        <v>10.28013</v>
+        <v>0.93344090000000002</v>
       </c>
       <c r="O29">
         <v>10.43647</v>
